--- a/data/bundle_persons_titles_lccn_missing.xlsx
+++ b/data/bundle_persons_titles_lccn_missing.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="11_67F9EF50F3DF0F4BC7CA38CD5DDAC71616E35DB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C16C6B3-9A97-4942-B6D2-41E39F0C5D2B}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-4550" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="85200" yWindow="1410" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persons with LCCN" sheetId="1" r:id="rId1"/>
@@ -7680,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
